--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_43.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -528,677 +534,650 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:00:55.720000', '0:01:04.640000'), ('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.640000', '0:00:38.520000'), ('0:00:36.340000', '0:00:37.980000'), ('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:45.960000', '0:00:49.040000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C', 'C:7', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['G', 'G:7', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[('0:00:31.527551', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.265237', '0:01:10.536984')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.14, 21.44)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:02.560000', '0:00:04.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.8, 10.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.235632183908046</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.158117, 14.983242)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.94, 67.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.56, 69.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
